--- a/schedule_output.xlsx
+++ b/schedule_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsterdamdatacollective-my.sharepoint.com/personal/thomas_b_adc-consulting_com/Documents/Documents/Collective Week/Code/Schooltuinen%20Amsterdam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_2B59D2BFD350D50B67F9341159D9A07475E9E4CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F1205F0-DB79-454D-B8BA-E87750F02D1F}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_2B59D2BFD350D50B67F9341159D9A07475E9E4CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{917C0219-86FA-4E20-9029-930FC0E9C107}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Tijdslot</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Inschrijfcode</t>
-  </si>
-  <si>
-    <t>ssss</t>
   </si>
 </sst>
 </file>
@@ -176,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -184,8 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -493,9 +489,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -514,7 +510,7 @@
     <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -539,111 +535,85 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -654,13 +624,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
